--- a/1.原文件/岗位需求明细表/条件要求较简单的部分岗位岗位要求-模拟数据.xlsx
+++ b/1.原文件/岗位需求明细表/条件要求较简单的部分岗位岗位要求-模拟数据.xlsx
@@ -1,37 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="29240" windowHeight="14540" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="明细表 (代称)" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'明细表 (代称)'!$A$2:$P$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="149">
   <si>
     <t>公开选聘岗位明细表</t>
   </si>
@@ -897,145 +883,20 @@
 （4）逻辑思维能力强，数字敏感性高，具备数据分析能力，善于分析总结解决问题；
 （5）工作积极主动，具备较强的责任心和原则性，具有良好的学习能力和抗压能力。</t>
   </si>
-  <si>
-    <t>学历要求</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>全日制硕士研究生及以上学历【国（境）外高校进入“四大”世界大学排行榜前300名</t>
-  </si>
-  <si>
-    <t>前300名学校名单</t>
-  </si>
-  <si>
-    <t>学历</t>
-  </si>
-  <si>
-    <t>全日制本科为原985、211院校</t>
-  </si>
-  <si>
-    <t>原985、211院校名单</t>
-  </si>
-  <si>
-    <t>专业要求</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>"计算机科学与技术类",
-                "工商管理类",
-                "管理科学与工程类",
-                "电气类",
-                "计算机类相关专业</t>
-  </si>
-  <si>
-    <t>相关专业名单</t>
-  </si>
-  <si>
-    <t>经历</t>
-  </si>
-  <si>
-    <t>或具备1年综合业务、行政业务、企管业务、人力资源业务、市场营销业务、信息技术业务、政工业务、信息技能工作经历。</t>
-  </si>
-  <si>
-    <t>与简历匹配</t>
-  </si>
-  <si>
-    <t>年龄要求</t>
-  </si>
-  <si>
-    <t xml:space="preserve">≤40
-</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>绩效要求</t>
-  </si>
-  <si>
-    <t>系统内</t>
-  </si>
-  <si>
-    <t>近3年个人年度绩效考核结果均为称职（B级）及以上</t>
-  </si>
-  <si>
-    <t>数据处理(A,B)</t>
-  </si>
-  <si>
-    <t>系统外</t>
-  </si>
-  <si>
-    <t>近3年个人年度绩效考核结果均不得为不及格</t>
-  </si>
-  <si>
-    <t>职称要求</t>
-  </si>
-  <si>
-    <t>工作经历</t>
-  </si>
-  <si>
-    <t>南方电网公司系统内应聘人员</t>
-  </si>
-  <si>
-    <t>属于校园招聘方式进入的人员，原则上在公司系统内工作不少于3年，博士可放宽至不少于2年，同时满足基层一线或一线班组工作年限要求；属于社会招聘、成建制转入方式进入的人员，按照《公司劳动用工管理办法》相关规定执行；</t>
-  </si>
-  <si>
-    <t>南方电网公司系统外应聘人员</t>
-  </si>
-  <si>
-    <t>最高学历为博士研究生的毕业后工作应满1年、硕士研究生的毕业后工作应满2年、全日制本科毕业后工作满3年，或具有高级及以上职称。</t>
-  </si>
-  <si>
-    <t>工作经验</t>
-  </si>
-  <si>
-    <t>≥3</t>
-  </si>
-  <si>
-    <t>能力要求</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "（1）具备业务需求分析与解决方案能力、具备扎实的产品设计、项目管理、市场分析等专业知识者优先，熟悉产品开发流程和相关工具者优先；",
-          "（2）具备创新思维和敏锐的市场洞察力者优先，能够持续关注市场动态和竞争对手、为产品注入新的创意和竞争力者优先；",
-          "（3）具有较强的产品规划设计与推广能力，熟悉产品全生命周期管理方法，具有较强的产品商业化思维，能制定产品推广策略；",
-          "（4）具备项目管理与交付能力，熟悉产品开发流程，具备出色的跨部门沟通能力，能协调团队确保需求落地与项目交付；",
-          "（5）具有良好的团队合作精神，有较好陌生领域快速学习能力、抗压能力，较强的责任心和执行力、优秀的学习和分析能力，具备产品思维和商业化落地思维。",
-          "（6）具备项目管理能力（编制产品设计规划、制定产品开发计划、控制项目进度、质量和成本等方面的能力）者优先，确保产品按时间要求、按质量要求、按预算完成，并持续推动产品优化和改进，具有极强的沟通协调能力和资源整合能力者优先；",
-          "（7）具备较强的逻辑思维与文字功底者优先，能够撰写清晰、准确的技术文档和解决方案报告者优先；",
-          "（8）业务沟通能力强，具有客户拓展经验，能够独立开展市场、客户调研，做好客户关系维护。"</t>
-  </si>
-  <si>
-    <t>持证要求</t>
-  </si>
-  <si>
-    <t xml:space="preserve">夫妻关系、直系血亲关系（包括祖父母、外祖父母、父母、子女、孙子女、外孙子女）、三代以内旁系血亲（包括伯叔姑舅姨、兄弟姐妹、堂兄弟姐妹、表兄弟姐妹、侄子女、甥子女）以及近姻亲关系（包括配偶的父母、配偶的兄弟姐妹及其配偶、子女的配偶及子女配偶的父母、三代以内旁系血亲的配偶），以及其他因工作关系原因须回避的，不得同时在南网数字集团人才发展中心工作。
-</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1069,6 +930,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1082,6 +971,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1121,21 +1018,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1186,34 +1068,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1222,7 +1083,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,7 +1119,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,19 +1149,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,18 +1197,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1312,31 +1209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,19 +1233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,12 +1252,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,6 +1308,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1481,21 +1351,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1554,258 +1409,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2109,1602 +1937,1602 @@
   </sheetPr>
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.71153846153846" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="29.6057692307692" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.0288461538462" style="10" customWidth="1"/>
-    <col min="5" max="6" width="8.71153846153846" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="10" customWidth="1"/>
-    <col min="9" max="10" width="8.71153846153846" style="10" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="35.625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="113.509615384615" style="10" customWidth="1"/>
-    <col min="14" max="14" width="35.625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="35.625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.71296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6018518518519" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.0277777777778" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.71296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.3796296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6296296296296" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.71296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6296296296296" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.6296296296296" style="1" customWidth="1"/>
+    <col min="13" max="13" width="53.1111111111111" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.6296296296296" style="3" customWidth="1"/>
+    <col min="15" max="15" width="35.6296296296296" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="17" spans="1:16">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="409.5" customHeight="1" spans="1:16">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="409.5" customHeight="1" spans="1:16">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A5" s="15">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="I5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="8">
         <v>1</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A7" s="15">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="I7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A8" s="15">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="I8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" ht="243" customHeight="1" spans="1:16">
-      <c r="A9" s="15">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="I9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" ht="256.5" customHeight="1" spans="1:16">
-      <c r="A10" s="15">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="I10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="256.5" customHeight="1" spans="1:16">
-      <c r="A11" s="15">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" ht="270" customHeight="1" spans="1:16">
-      <c r="A12" s="15">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="I12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A13" s="15">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="15" t="s">
+      <c r="I13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A14" s="15">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="15" t="s">
+      <c r="I14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" ht="324" customHeight="1" spans="1:16">
-      <c r="A15" s="15">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="8">
         <v>1</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="15" t="s">
+      <c r="I15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" ht="270" customHeight="1" spans="1:16">
-      <c r="A16" s="15">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="8">
         <v>1</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="15" t="s">
+      <c r="I16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" ht="324" customHeight="1" spans="1:16">
-      <c r="A17" s="15">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="8">
         <v>1</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="I17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A18" s="15">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="8">
         <v>1</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="I18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" ht="256.5" customHeight="1" spans="1:16">
-      <c r="A19" s="15">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="8">
         <v>1</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="15" t="s">
+      <c r="I19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" ht="364.5" customHeight="1" spans="1:16">
-      <c r="A20" s="15">
-        <v>18</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="8">
         <v>1</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="15" t="s">
+      <c r="I20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" ht="324" customHeight="1" spans="1:16">
-      <c r="A21" s="15">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="8">
         <v>1</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="I21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" ht="256.5" customHeight="1" spans="1:16">
-      <c r="A22" s="15">
-        <v>20</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="8">
         <v>1</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="I22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" ht="270" customHeight="1" spans="1:16">
-      <c r="A23" s="15">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="I23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P23" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" ht="310.5" customHeight="1" spans="1:16">
-      <c r="A24" s="15">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="8">
         <v>1</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="I24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" ht="310.5" customHeight="1" spans="1:16">
-      <c r="A25" s="15">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="8">
         <v>1</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="15" t="s">
+      <c r="I25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" ht="324" customHeight="1" spans="1:16">
-      <c r="A26" s="15">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="F26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="8">
         <v>1</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="I26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" ht="297" customHeight="1" spans="1:16">
-      <c r="A27" s="15">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="8">
         <v>1</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="15" t="s">
+      <c r="I27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" ht="378" customHeight="1" spans="1:16">
-      <c r="A28" s="15">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="8">
         <v>1</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="I28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="P28" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" ht="409.5" customHeight="1" spans="1:16">
-      <c r="A29" s="15">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="8">
         <v>1</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="15" t="s">
+      <c r="I29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="P29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" ht="324" customHeight="1" spans="1:16">
-      <c r="A30" s="15">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="F30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="8">
         <v>1</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="15" t="s">
+      <c r="I30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="P30" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A31" s="15">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="8">
         <v>1</v>
       </c>
-      <c r="I31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="15" t="s">
+      <c r="I31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="19" t="s">
+      <c r="O31" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="P31" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" ht="297" customHeight="1" spans="1:16">
-      <c r="A32" s="15">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="F32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="8">
         <v>1</v>
       </c>
-      <c r="I32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="15" t="s">
+      <c r="I32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="P32" s="15" t="s">
+      <c r="P32" s="8" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:P32" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A2:P32">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3714,249 +3542,4 @@
   <pageSetup paperSize="8" scale="89" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
-  <cols>
-    <col min="4" max="4" width="28.6826923076923" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="41" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" ht="101" spans="1:6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" ht="55" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" ht="34" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="28" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="28" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="55" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="55" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="409.5" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" ht="269" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/1.原文件/岗位需求明细表/条件要求较简单的部分岗位岗位要求-模拟数据.xlsx
+++ b/1.原文件/岗位需求明细表/条件要求较简单的部分岗位岗位要求-模拟数据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="27680" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="明细表 (代称)" sheetId="7" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'明细表 (代称)'!$A$2:$P$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -222,7 +235,7 @@
 6.具备软件类中级及以上证书或中级及以上专业技术资格者优先。</t>
   </si>
   <si>
-    <t>岗位7</t>
+    <t>系统架构师</t>
   </si>
   <si>
     <t>1.负责能源经济等领域专题研究，编制研究报告，完成成果整理与报送等工作；
@@ -600,7 +613,7 @@
     <t>A管理部</t>
   </si>
   <si>
-    <t>岗位21</t>
+    <t>项目经理</t>
   </si>
   <si>
     <t>1.贯彻执行公司相关政策和管理要求，组织制定和完善项目管理相关制度和标准，并推进落实；
@@ -887,7 +900,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -930,34 +943,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -971,14 +956,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1018,6 +995,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,7 +1060,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,55 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,31 +1120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,6 +1156,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1209,7 +1180,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1228,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,6 +1259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,21 +1321,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1351,6 +1349,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1409,148 +1422,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,76 +1577,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1938,27 +1951,27 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.71296296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6018518518519" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.0277777777778" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.71296296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.3796296296296" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6296296296296" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.71296296296296" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6296296296296" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.6296296296296" style="1" customWidth="1"/>
-    <col min="13" max="13" width="53.1111111111111" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.6296296296296" style="3" customWidth="1"/>
-    <col min="15" max="15" width="35.6296296296296" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.71153846153846" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6057692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.0288461538462" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.71153846153846" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.71153846153846" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="53.1153846153846" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="35.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:16">
@@ -1970,7 +1983,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1981,1558 +1994,1558 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="17" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="409.5" customHeight="1" spans="1:16">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>1</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="409.5" customHeight="1" spans="1:16">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" ht="243" customHeight="1" spans="1:16">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="I9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" ht="256.5" customHeight="1" spans="1:16">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="I10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="256.5" customHeight="1" spans="1:16">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="I11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" ht="270" customHeight="1" spans="1:16">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="I12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="I13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="I14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" ht="324" customHeight="1" spans="1:16">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>1</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="I15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" ht="270" customHeight="1" spans="1:16">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>1</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="I16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" ht="324" customHeight="1" spans="1:16">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>1</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="I17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>1</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="I18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" ht="256.5" customHeight="1" spans="1:16">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>1</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="8" t="s">
+      <c r="I19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" ht="364.5" customHeight="1" spans="1:16">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>1</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="8" t="s">
+      <c r="I20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" ht="324" customHeight="1" spans="1:16">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>1</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="I21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" ht="256.5" customHeight="1" spans="1:16">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>1</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="8" t="s">
+      <c r="I22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" ht="270" customHeight="1" spans="1:16">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>1</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="8" t="s">
+      <c r="I23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="P23" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" ht="310.5" customHeight="1" spans="1:16">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>1</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="8" t="s">
+      <c r="I24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="P24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" ht="310.5" customHeight="1" spans="1:16">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <v>1</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="8" t="s">
+      <c r="I25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" ht="324" customHeight="1" spans="1:16">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>1</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="8" t="s">
+      <c r="I26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" ht="297" customHeight="1" spans="1:16">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <v>1</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="8" t="s">
+      <c r="I27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" ht="378" customHeight="1" spans="1:16">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>1</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="8" t="s">
+      <c r="I28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" ht="409.5" customHeight="1" spans="1:16">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>1</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="8" t="s">
+      <c r="I29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" ht="324" customHeight="1" spans="1:16">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="8" t="s">
+      <c r="I30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="O30" s="11" t="s">
+      <c r="O30" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="P30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" ht="283.5" customHeight="1" spans="1:16">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>1</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="8" t="s">
+      <c r="I31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" ht="297" customHeight="1" spans="1:16">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="6">
         <v>1</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="8" t="s">
+      <c r="I32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="O32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="6" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P32">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:P32" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
